--- a/data/trans_dic/P19C03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,61%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,4%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>31,55; 41,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>28,92; 38,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>24,23; 33,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>15,18; 29,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>28,45; 37,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>24,67; 34,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>20,62; 29,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>10,07; 22,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>31,19; 38,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>28,29; 35,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>23,75; 30,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>13,69; 23,12</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,61%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,07%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,09%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,62%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>35,9; 44,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>30,5; 38,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>30,11; 38,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>17,71; 28,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>35,1; 43,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>29,84; 38,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>26,13; 34,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>15,22; 23,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>36,76; 42,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>31,05; 37,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>29,32; 35,42</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>17,55; 24,02</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,7%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,82%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,77%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,82%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,49%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>34,77; 43,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>29,4; 37,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>29,56; 37,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>18,57; 26,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>33,22; 40,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>32,0; 39,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>26,05; 33,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>17,92; 23,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>34,87; 40,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>31,86; 37,3</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>29,2; 34,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>19,24; 24,1</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,75%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,64%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>30,77; 40,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>28,92; 37,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>23,93; 32,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>15,28; 23,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>30,74; 39,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>26,51; 34,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>24,65; 32,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>18,88; 25,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>31,86; 38,39</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>28,82; 34,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>25,21; 30,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>17,97; 23,32</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,53%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,66%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,93%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>16,39; 26,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>26,03; 36,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>16,1; 25,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>16,32; 22,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>25,44; 35,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>27,23; 36,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>20,27; 29,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>18,18; 23,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>22,29; 29,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>27,67; 34,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>19,53; 25,95</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>17,94; 22,17</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,57%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>7,08; 13,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>9,63; 16,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>12,12; 19,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>8,75; 12,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>10,83; 17,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>11,0; 16,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>14,44; 21,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>7,32; 12,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>9,94; 14,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>11,11; 15,6</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>14,42; 19,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>8,32; 12,03</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,99%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,57%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,73%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,01%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>30,02; 33,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>28,35; 31,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>25,68; 29,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,06; 20,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>30,17; 33,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,38; 30,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>24,67; 27,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>15,6; 18,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>30,61; 33,25</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>28,23; 30,71</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>25,74; 28,12</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>16,81; 19,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>19,21%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,18; 29,6</t>
+          <t>14,62; 30,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,07; 22,05</t>
+          <t>11,03; 23,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,69; 23,12</t>
+          <t>14,26; 24,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>19,65%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,71; 28,43</t>
+          <t>18,16; 28,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,22; 23,06</t>
+          <t>10,94; 21,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,55; 24,02</t>
+          <t>14,59; 23,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>22,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>21,8%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,57; 26,21</t>
+          <t>18,87; 26,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,92; 23,81</t>
+          <t>18,15; 24,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,24; 24,1</t>
+          <t>19,52; 24,51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,64%</t>
+          <t>19,48%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,28; 23,74</t>
+          <t>7,15; 22,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,88; 25,25</t>
+          <t>19,73; 37,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,97; 23,32</t>
+          <t>11,06; 24,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>20,15%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,32; 22,38</t>
+          <t>16,47; 22,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,18; 23,29</t>
+          <t>18,42; 23,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,94; 22,17</t>
+          <t>18,16; 22,37</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>11,56%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,08; 13,39</t>
+          <t>8,34; 17,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,63; 16,3</t>
+          <t>11,62; 21,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,12; 19,64</t>
+          <t>13,58; 24,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,82</t>
+          <t>10,08; 16,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,83; 17,13</t>
+          <t>16,18; 26,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,0; 16,32</t>
+          <t>16,03; 25,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,44; 21,53</t>
+          <t>17,84; 27,28</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,32; 12,64</t>
+          <t>3,85; 17,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,94; 14,49</t>
+          <t>13,54; 20,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,11; 15,6</t>
+          <t>15,14; 21,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,42; 19,36</t>
+          <t>17,3; 24,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,32; 12,03</t>
+          <t>5,74; 15,22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>29,48%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>7,83%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,22; 11,09</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4,53; 13,3</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6,59; 14,94</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5,58; 10,62</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 9,87</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 10,39</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7,65; 18,12</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 9,75</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3,21; 8,65</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 10,0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>8,35; 15,7</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 9,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>31,99%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>30,03%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>27,57%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17,94%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>32,06%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>28,96%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26,29%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17,44%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>32,03%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>29,48%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>26,91%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>17,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>30,02; 33,98</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>28,35; 31,81</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>25,68; 29,35</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>17,06; 20,54</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>13,38; 20,06</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>30,17; 33,89</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>27,38; 30,69</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>24,67; 27,88</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>15,6; 18,72</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>14,68; 19,98</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>30,61; 33,25</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>28,23; 30,71</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>25,74; 28,12</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>16,81; 19,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>15,35; 19,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P19C03-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,55; 41,33</t>
+          <t>31,03; 40,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>28,92; 38,99</t>
+          <t>28,95; 39,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,23; 33,93</t>
+          <t>24,02; 34,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,62; 30,19</t>
+          <t>13,88; 30,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,45; 37,58</t>
+          <t>28,7; 38,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,67; 34,33</t>
+          <t>25,24; 34,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,62; 29,62</t>
+          <t>20,62; 29,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,03; 23,96</t>
+          <t>10,91; 23,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>31,19; 38,32</t>
+          <t>31,01; 38,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,29; 35,06</t>
+          <t>28,13; 35,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,75; 30,75</t>
+          <t>23,4; 30,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,26; 24,48</t>
+          <t>14,74; 25,09</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,9; 44,2</t>
+          <t>35,52; 43,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,5; 38,21</t>
+          <t>30,64; 38,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,11; 38,65</t>
+          <t>30,06; 38,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,16; 28,92</t>
+          <t>18,19; 29,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,1; 43,39</t>
+          <t>35,19; 43,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,84; 38,47</t>
+          <t>29,9; 38,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>26,13; 34,42</t>
+          <t>26,24; 34,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,94; 21,53</t>
+          <t>10,74; 21,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,76; 42,54</t>
+          <t>37,03; 42,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,05; 37,01</t>
+          <t>31,3; 36,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,32; 35,42</t>
+          <t>29,29; 35,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,59; 23,19</t>
+          <t>15,01; 23,28</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,77; 43,39</t>
+          <t>34,18; 42,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,4; 37,49</t>
+          <t>29,91; 37,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,56; 37,55</t>
+          <t>29,54; 37,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18,87; 26,6</t>
+          <t>18,61; 26,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,22; 40,95</t>
+          <t>33,02; 41,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,0; 39,34</t>
+          <t>31,89; 39,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,05; 33,65</t>
+          <t>26,45; 33,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,15; 24,09</t>
+          <t>18,37; 24,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>34,87; 40,82</t>
+          <t>35,05; 40,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>31,86; 37,3</t>
+          <t>31,97; 37,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,2; 34,81</t>
+          <t>29,45; 34,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,52; 24,51</t>
+          <t>19,63; 24,09</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,77; 40,39</t>
+          <t>30,26; 39,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,92; 37,26</t>
+          <t>28,73; 37,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,93; 32,25</t>
+          <t>23,61; 31,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 22,99</t>
+          <t>6,7; 23,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,74; 39,79</t>
+          <t>31,08; 39,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,51; 34,47</t>
+          <t>26,48; 34,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,65; 32,59</t>
+          <t>25,0; 32,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 37,35</t>
+          <t>19,54; 38,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,86; 38,39</t>
+          <t>31,62; 38,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,82; 34,94</t>
+          <t>28,89; 34,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,21; 30,98</t>
+          <t>25,41; 31,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,06; 24,35</t>
+          <t>11,7; 24,72</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,39; 26,24</t>
+          <t>16,05; 26,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,03; 36,18</t>
+          <t>25,83; 36,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,1; 25,04</t>
+          <t>16,59; 26,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,47; 22,62</t>
+          <t>16,71; 23,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,44; 35,95</t>
+          <t>25,52; 35,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,23; 36,89</t>
+          <t>26,84; 37,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,27; 29,28</t>
+          <t>20,15; 29,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,42; 23,58</t>
+          <t>18,53; 23,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,29; 29,79</t>
+          <t>22,4; 29,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27,67; 34,66</t>
+          <t>27,64; 34,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19,53; 25,95</t>
+          <t>19,79; 25,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,16; 22,37</t>
+          <t>17,97; 22,27</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,34; 17,34</t>
+          <t>8,45; 16,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,62; 21,86</t>
+          <t>11,26; 21,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,58; 24,43</t>
+          <t>14,45; 23,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,08; 16,3</t>
+          <t>10,43; 16,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,18; 26,13</t>
+          <t>16,39; 25,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,03; 25,01</t>
+          <t>15,89; 24,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,84; 27,28</t>
+          <t>17,51; 26,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,85; 17,16</t>
+          <t>3,71; 16,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,54; 20,11</t>
+          <t>13,7; 20,68</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15,14; 21,87</t>
+          <t>15,18; 22,02</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,3; 24,66</t>
+          <t>17,59; 24,53</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,74; 15,22</t>
+          <t>6,08; 15,36</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,22; 11,09</t>
+          <t>2,09; 11,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 13,3</t>
+          <t>4,54; 12,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,59; 14,94</t>
+          <t>6,53; 15,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,58; 10,62</t>
+          <t>5,68; 11,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 9,87</t>
+          <t>2,72; 9,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,22; 10,39</t>
+          <t>4,23; 10,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,65; 18,12</t>
+          <t>7,59; 18,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,75</t>
+          <t>6,08; 9,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,21; 8,65</t>
+          <t>3,17; 8,43</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,05; 10,0</t>
+          <t>5,21; 10,12</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,35; 15,7</t>
+          <t>8,28; 15,62</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 9,4</t>
+          <t>6,45; 9,54</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>30,02; 33,98</t>
+          <t>30,08; 34,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,35; 31,81</t>
+          <t>28,16; 31,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>25,68; 29,35</t>
+          <t>25,65; 29,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,38; 20,06</t>
+          <t>13,9; 20,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>30,17; 33,89</t>
+          <t>30,12; 33,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,38; 30,69</t>
+          <t>27,05; 30,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>24,67; 27,88</t>
+          <t>24,66; 27,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,68; 19,98</t>
+          <t>14,48; 19,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,61; 33,25</t>
+          <t>30,72; 33,28</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>28,23; 30,71</t>
+          <t>28,31; 30,8</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>25,74; 28,12</t>
+          <t>25,65; 28,05</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,35; 19,44</t>
+          <t>15,26; 19,35</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por un empaste</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>130027</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>127378</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>102453</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>81833</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>124570</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>109482</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>87929</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>50110</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>254597</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>236859</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>190382</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>131943</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>111505; 146535</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>109496; 147562</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>84739; 121372</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>53211; 118063</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>107984; 143407</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>93628; 128051</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>72585; 105179</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>33116; 72409</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>228107; 280062</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>210739; 262884</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>164890; 215172</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>101277; 172372</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>229067</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>203442</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>167800</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>92292</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>215906</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>190069</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>149838</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>84982</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>444973</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>393510</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>317637</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>177273</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>204541; 251075</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>182711; 230849</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>148214; 190281</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>73192; 118780</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>192756; 236980</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>167082; 215462</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>130362; 169794</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>53656; 108860</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>416022; 479529</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>361598; 427151</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>289932; 350520</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>135386; 209989</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>193725</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>197576</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>187394</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>117448</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>224343</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>235411</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>172446</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>112481</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>418068</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>432988</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>359840</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>229929</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>171542; 215731</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>175175; 222310</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>164802; 209393</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>97327; 138912</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>199271; 248950</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>210317; 261107</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>151582; 194633</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>97699; 128338</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>387410; 451887</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>398100; 466836</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>333028; 392650</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>207041; 254092</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>142958</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>179410</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>141871</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>135098</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>154341</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>171183</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>156838</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>169470</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>297300</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>350593</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>298709</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>304567</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>122464; 161781</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>155958; 202295</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>120952; 162450</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>57850; 198912</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>136517; 172877</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>148668; 195585</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>136232; 179517</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>136923; 271460</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>266814; 325444</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>319031; 385633</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>268674; 330221</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>182928; 386440</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>55927</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>110543</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>76860</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>105855</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>97243</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>123629</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>96903</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>111830</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>153170</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>234172</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>173763</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>217686</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>43708; 70899</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>93343; 130191</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>61552; 96560</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>91342; 127924</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>81422; 114237</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>104865; 145049</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>79750; 117316</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>98918; 126093</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>132477; 175478</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>207827; 261091</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>151778; 197272</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>194206; 240578</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>26292</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>41441</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>43458</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>47445</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>51000</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>60493</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>61855</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>63437</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>77292</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>101934</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>105313</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>110882</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>17976; 36003</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>29558; 57023</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>33245; 55165</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>37480; 58953</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>40465; 63091</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>47618; 74200</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>48495; 74253</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>22234; 100416</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>62971; 95051</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>85306; 123768</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>89199; 124365</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>58350; 147323</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>6943</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>14777</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>14769</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>21718</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>11401</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>20451</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>28098</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>31856</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>18344</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>35228</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>42867</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>53575</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2654; 14375</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>8402; 23547</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>9600; 22456</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>15646; 30518</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5664; 19446</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>12834; 30992</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>17305; 41708</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>24854; 40615</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>10616; 28226</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>25450; 49412</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>31053; 58575</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>44103; 65273</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>828</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>941</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1624</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1683</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1421</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1510</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>784940</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>874567</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>734604</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>601689</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>878804</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>910717</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>753907</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>624166</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1663744</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1785284</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1488511</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1225855</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>738000; 835283</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>819942; 925148</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>683521; 780111</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>466080; 677159</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>825485; 928483</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>850603; 961140</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>707216; 799085</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>518144; 714249</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1595910; 1728616</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1714774; 1865452</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1419039; 1551376</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1057834; 1341274</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>